--- a/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
+++ b/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/LBNL/FLEXLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/flexlab/sw_mat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07847960-BFC0-FB4F-91BA-5DC44444BA5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4FDDA-E6DB-424A-8D2C-7EEDEFBF3164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1518,52 +1518,52 @@
         <v>48</v>
       </c>
       <c r="C17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R17" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1950,7 +1950,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1967,7 +1967,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>

--- a/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
+++ b/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/flexlab/sw_mat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4FDDA-E6DB-424A-8D2C-7EEDEFBF3164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0429437-31A5-1F42-8B05-6722349B7AE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -281,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +607,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1462,52 +1465,52 @@
         <v>47</v>
       </c>
       <c r="C16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="D16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="E16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="F16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="G16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="H16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="I16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="J16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="K16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="L16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="M16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="N16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="O16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="P16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="Q16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
       <c r="R16" s="5">
-        <v>100</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1518,52 +1521,52 @@
         <v>48</v>
       </c>
       <c r="C17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="5">
-        <v>500</v>
-      </c>
-      <c r="H17" s="5">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1000</v>
       </c>
       <c r="I17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="5">
-        <v>500</v>
-      </c>
-      <c r="N17" s="5">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1000</v>
       </c>
       <c r="O17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P17" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="5">
-        <v>500</v>
-      </c>
-      <c r="R17" s="5">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
+++ b/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/flexlab/sw_mat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0429437-31A5-1F42-8B05-6722349B7AE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C110FEE8-0459-304D-80F2-DB42904B94BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -281,9 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +604,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1521,52 +1518,52 @@
         <v>48</v>
       </c>
       <c r="C17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="H17" s="5">
+        <v>700</v>
       </c>
       <c r="I17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="J17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="12">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="N17" s="5">
+        <v>700</v>
       </c>
       <c r="O17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="P17" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R17" s="12">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="R17" s="5">
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
+++ b/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/flexlab/sw_mat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C110FEE8-0459-304D-80F2-DB42904B94BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3219FBDE-4AF0-B048-AC85-961F160C3CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>

--- a/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
+++ b/flexlab/sw_mat/HIL_switch_matrix_13NF_bal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/flexlab/sw_mat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3219FBDE-4AF0-B048-AC85-961F160C3CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ACEE12-D749-164A-8547-4AD363F5CFED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="8">
         <v>2</v>
